--- a/biology/Zoologie/Atherix/Atherix.xlsx
+++ b/biology/Zoologie/Atherix/Atherix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atherix est un genre d'insectes diptères brachycères (mouches) appartenant à la famille des Athericidae, une petite famille très proche de la famille des Rhagionidae. Les espèces de ce genre sont présentes dans la plupart des pays d'Europe et aussi dans l'écozone néarctique.
 </t>
@@ -511,9 +523,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (20 juillet 2020)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (20 juillet 2020) :
 Atherix aurichalcea Becker, 1921
 Atherix ibis (Fabricius, 1798)
 Atherix lantha Webb, 1977
